--- a/2020_자동차현황.xlsx
+++ b/2020_자동차현황.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcy00\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcy00\Desktop\doit_pandas-master\doit_pandas-master\data_chaeyeon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E42C7FB-25B5-45E5-92DF-C66557504E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4613DF5E-4EF3-4B99-B62E-B59FA20CA997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F13BE8A3-8D1B-4A8C-AEA9-35B3F334E0D3}"/>
+    <workbookView xWindow="11928" yWindow="696" windowWidth="11016" windowHeight="11592" xr2:uid="{F13BE8A3-8D1B-4A8C-AEA9-35B3F334E0D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>지역</t>
-    <phoneticPr fontId="56" type="noConversion"/>
-  </si>
   <si>
     <t>서울</t>
     <phoneticPr fontId="56" type="noConversion"/>
@@ -107,14 +103,17 @@
     <t>12월</t>
     <phoneticPr fontId="56" type="noConversion"/>
   </si>
+  <si>
+    <t>시.도</t>
+    <phoneticPr fontId="56" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="57" x14ac:knownFonts="1">
     <font>
@@ -9438,13 +9437,13 @@
     <xf numFmtId="0" fontId="28" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -13166,7 +13165,7 @@
     <xf numFmtId="0" fontId="28" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -18120,7 +18119,7 @@
   <dimension ref="A2:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -18134,48 +18133,48 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>3117569</v>
@@ -18216,7 +18215,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>5769889</v>
@@ -18257,7 +18256,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>1635224</v>
@@ -18298,7 +18297,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>1183055</v>
@@ -18339,7 +18338,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>588781</v>
